--- a/prediccion_test_Arte_2019_1.xlsx
+++ b/prediccion_test_Arte_2019_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="10">
   <si>
     <t>Nota1</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <v>0.04510249544917722</v>
+        <v>0.06421760762622175</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -465,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>0.009823733397101186</v>
+        <v>0.008269455914287738</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -482,45 +482,3972 @@
         <v>5</v>
       </c>
       <c r="E4" s="3">
-        <v>0.74136725854658</v>
+        <v>0.9548226154490548</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.819751580022555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.9923235421712356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.4762891434934396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.9764664386082289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.1507183252718254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.3093410610575613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.3996523864489082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.8663272669034698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.9813782395271712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.5729943278102867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.9990507481812143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.7930443476823303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.9119192092015977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.9998028850952553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.9736274074160068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.5729943278102867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.6293324743238178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.9670874247986707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.4569329022805092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.04316535999829907</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.9592653432794916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.2008525669673928</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.7331120230845887</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.8663272669034698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.04316535999829907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.008269455914287738</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.5345107832454349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.9194471995283751</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.6107949322006566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.8322546361222385</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.8322546361222385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.944771280809474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.9932940369066492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.9986863375510457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="C43">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.79304434768233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>18</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.9194471995283751</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.9912314885697006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.9978964101522474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.7488727725877542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.6293324743238177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.9194471995283751</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.819751580022555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.9941544615495722</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.01383183531472953</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>19</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.9923235421712356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4">
-        <v>751</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.7168665082269123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.5151240566352098</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.5538159324502947</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.9038787798052939</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.9670874247986707</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.9932940369066492</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.9194471995283751</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.9499980644491912</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.5729943278102865</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.592001687807901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
         <v>7</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.4569329022805092</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.1008312277241259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.004776838078197176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>19</v>
+      </c>
+      <c r="B68">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.9941544615495722</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.8953113636833046</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>18</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.9991957512939431</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>18</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0.9912314885697004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.9499980644491912</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>18</v>
+      </c>
+      <c r="B75">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.9886326035138132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.01220171488908794</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>18</v>
+      </c>
+      <c r="B78">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.9971521687482268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>17</v>
+      </c>
+      <c r="C79">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.9932940369066492</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>18</v>
+      </c>
+      <c r="B80">
+        <v>15</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.9978964101522474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>16</v>
+      </c>
+      <c r="C81">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.9592653432794916</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>18</v>
+      </c>
+      <c r="B82">
+        <v>17</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.9988820765269093</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>18</v>
+      </c>
+      <c r="B83">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.9961781659825659</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>15</v>
+      </c>
+      <c r="C84">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.9391221377550747</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>14</v>
+      </c>
+      <c r="B85">
+        <v>15</v>
+      </c>
+      <c r="C85">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.9886326035138132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>18</v>
+      </c>
+      <c r="B86">
+        <v>17</v>
+      </c>
+      <c r="C86">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.9988820765269093</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>16</v>
+      </c>
+      <c r="B87">
+        <v>14</v>
+      </c>
+      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0.9886326035138132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>17</v>
+      </c>
+      <c r="B88">
+        <v>15</v>
+      </c>
+      <c r="C88">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0.9941544615495722</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>20</v>
+      </c>
+      <c r="B89">
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.9995946845034065</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>18</v>
+      </c>
+      <c r="B90">
+        <v>17</v>
+      </c>
+      <c r="C90">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.9988820765269093</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>18</v>
+      </c>
+      <c r="B91">
+        <v>16</v>
+      </c>
+      <c r="C91">
+        <v>17</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0.9961781659825659</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>16</v>
+      </c>
+      <c r="B92">
+        <v>17</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.9971521687482268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>15</v>
+      </c>
+      <c r="B93">
+        <v>16</v>
+      </c>
+      <c r="C93">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.9834874871824799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>14</v>
+      </c>
+      <c r="B94">
+        <v>15</v>
+      </c>
+      <c r="C94">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.9813782395271712</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>18</v>
+      </c>
+      <c r="B96">
+        <v>16</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.9984597255285098</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>13</v>
+      </c>
+      <c r="B97">
+        <v>15</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.9834874871824799</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>17</v>
+      </c>
+      <c r="B98">
+        <v>15</v>
+      </c>
+      <c r="C98">
+        <v>16</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.9900055600310841</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <v>15</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.9886326035138132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>13</v>
+      </c>
+      <c r="B100">
+        <v>15</v>
+      </c>
+      <c r="C100">
+        <v>20</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.9834874871824799</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>14</v>
+      </c>
+      <c r="B101">
+        <v>15</v>
+      </c>
+      <c r="C101">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.9633467788325863</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>15</v>
+      </c>
+      <c r="B102">
+        <v>15</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.9923235421712356</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>13</v>
+      </c>
+      <c r="B103">
+        <v>16</v>
+      </c>
+      <c r="C103">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0.9592653432794916</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>18</v>
+      </c>
+      <c r="B104">
+        <v>14</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.9971521687482268</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>16</v>
+      </c>
+      <c r="B106">
+        <v>16</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0.9961781659825659</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>13</v>
+      </c>
+      <c r="B107">
+        <v>15</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0.9834874871824799</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>16</v>
+      </c>
+      <c r="B108">
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.9971521687482268</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>15</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0.1746446671744939</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>13</v>
+      </c>
+      <c r="B110">
+        <v>16</v>
+      </c>
+      <c r="C110">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0.9592653432794916</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>16</v>
+      </c>
+      <c r="B111">
+        <v>15</v>
+      </c>
+      <c r="C111">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0.9853888028845791</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>15</v>
+      </c>
+      <c r="B112">
+        <v>16</v>
+      </c>
+      <c r="C112">
+        <v>18</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0.9900055600310841</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>14</v>
+      </c>
+      <c r="B113">
+        <v>15</v>
+      </c>
+      <c r="C113">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0.9633467788325863</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>13</v>
+      </c>
+      <c r="B114">
+        <v>15</v>
+      </c>
+      <c r="C114">
+        <v>20</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.9834874871824799</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>17</v>
+      </c>
+      <c r="B115">
+        <v>15</v>
+      </c>
+      <c r="C115">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.9900055600310841</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>16</v>
+      </c>
+      <c r="B116">
+        <v>16</v>
+      </c>
+      <c r="C116">
+        <v>20</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.9961781659825659</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>16</v>
+      </c>
+      <c r="B117">
+        <v>15</v>
+      </c>
+      <c r="C117">
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0.9949154935606489</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>14</v>
+      </c>
+      <c r="B118">
+        <v>15</v>
+      </c>
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0.9633467788325863</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>15</v>
+      </c>
+      <c r="B119">
+        <v>15</v>
+      </c>
+      <c r="C119">
+        <v>20</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0.9923235421712356</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>16</v>
+      </c>
+      <c r="B120">
+        <v>15</v>
+      </c>
+      <c r="C120">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0.9853888028845791</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>20</v>
+      </c>
+      <c r="B121">
+        <v>17</v>
+      </c>
+      <c r="C121">
+        <v>20</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0.9995946845034065</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>17</v>
+      </c>
+      <c r="B122">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0.9790438606583378</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>14</v>
+      </c>
+      <c r="B123">
+        <v>13</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0.553815932450295</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>12</v>
+      </c>
+      <c r="B124">
+        <v>14</v>
+      </c>
+      <c r="C124">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0.9548226154490548</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>15</v>
+      </c>
+      <c r="B125">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0.9900055600310841</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>20</v>
+      </c>
+      <c r="B126">
+        <v>20</v>
+      </c>
+      <c r="C126">
+        <v>20</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0.9998643704866146</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>19</v>
+      </c>
+      <c r="B127">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0.9986863375510457</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>11</v>
+      </c>
+      <c r="B128">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0.9119192092015977</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>16</v>
+      </c>
+      <c r="B129">
+        <v>15</v>
+      </c>
+      <c r="C129">
+        <v>7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0.9038787798052939</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>20</v>
+      </c>
+      <c r="B130">
+        <v>20</v>
+      </c>
+      <c r="C130">
+        <v>20</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0.9998643704866146</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>16</v>
+      </c>
+      <c r="B131">
+        <v>14</v>
+      </c>
+      <c r="C131">
+        <v>18</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0.9886326035138132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>16</v>
+      </c>
+      <c r="B132">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0.9813782395271712</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>14</v>
+      </c>
+      <c r="B133">
+        <v>9</v>
+      </c>
+      <c r="C133">
+        <v>18</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0.9330309631294547</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>14</v>
+      </c>
+      <c r="B134">
+        <v>14</v>
+      </c>
+      <c r="C134">
+        <v>20</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0.9853888028845791</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>15</v>
+      </c>
+      <c r="B135">
+        <v>17</v>
+      </c>
+      <c r="C135">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0.9391221377550747</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>14</v>
+      </c>
+      <c r="B136">
+        <v>15</v>
+      </c>
+      <c r="C136">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.8663272669034698</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>12</v>
+      </c>
+      <c r="B137">
+        <v>14</v>
+      </c>
+      <c r="C137">
+        <v>18</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0.9548226154490548</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>20</v>
+      </c>
+      <c r="B138">
+        <v>18</v>
+      </c>
+      <c r="C138">
+        <v>18</v>
+      </c>
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0.9994265162097781</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>9</v>
+      </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="2">
+        <v>0.1623948052293172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>7</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="2">
+        <v>0.01564642417996653</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>18</v>
+      </c>
+      <c r="B142">
+        <v>17</v>
+      </c>
+      <c r="C142">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0.9932940369066492</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>17</v>
+      </c>
+      <c r="B143">
+        <v>17</v>
+      </c>
+      <c r="C143">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="3">
+        <v>0.9670874247986707</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>11</v>
+      </c>
+      <c r="B144">
+        <v>9</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" s="2">
+        <v>0.3809672729623348</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>14</v>
+      </c>
+      <c r="B145">
+        <v>15</v>
+      </c>
+      <c r="C145">
+        <v>13</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0.944771280809474</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>16</v>
+      </c>
+      <c r="B146">
+        <v>15</v>
+      </c>
+      <c r="C146">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" s="3">
+        <v>0.9038787798052939</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>17</v>
+      </c>
+      <c r="B147">
+        <v>17</v>
+      </c>
+      <c r="C147">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="3">
+        <v>0.9391221377550745</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>18</v>
+      </c>
+      <c r="B148">
+        <v>15</v>
+      </c>
+      <c r="C148">
+        <v>9</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" s="3">
+        <v>0.9633467788325863</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>9</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="2">
+        <v>0.03136062690072439</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>16</v>
+      </c>
+      <c r="B150">
+        <v>14</v>
+      </c>
+      <c r="C150">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0.9764664386082289</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>15</v>
+      </c>
+      <c r="B151">
+        <v>14</v>
+      </c>
+      <c r="C151">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0.8765456995296389</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>15</v>
+      </c>
+      <c r="B152">
+        <v>15</v>
+      </c>
+      <c r="C152">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0.8765456995296389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>13</v>
+      </c>
+      <c r="B153">
+        <v>14</v>
+      </c>
+      <c r="C153">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="3">
+        <v>0.8322546361222385</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>11</v>
+      </c>
+      <c r="B154">
+        <v>14</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0.7788560727206837</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>11</v>
+      </c>
+      <c r="B155">
+        <v>9</v>
+      </c>
+      <c r="C155">
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="2">
+        <v>0.4957015071057841</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>17</v>
+      </c>
+      <c r="B156">
+        <v>18</v>
+      </c>
+      <c r="C156">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0.9955870204962189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>18</v>
+      </c>
+      <c r="B157">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>10</v>
+      </c>
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0.9548226154490548</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>14</v>
+      </c>
+      <c r="B158">
+        <v>14</v>
+      </c>
+      <c r="C158">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0.8441849690712624</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>8</v>
+      </c>
+      <c r="B160">
+        <v>15</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="2">
+        <v>0.2923909024007493</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>10</v>
+      </c>
+      <c r="B161">
+        <v>15</v>
+      </c>
+      <c r="C161">
+        <v>10</v>
+      </c>
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0.7641270163314631</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>16</v>
+      </c>
+      <c r="B163">
+        <v>14</v>
+      </c>
+      <c r="C163">
+        <v>18</v>
+      </c>
+      <c r="D163" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0.9886326035138132</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>16</v>
+      </c>
+      <c r="B164">
+        <v>16</v>
+      </c>
+      <c r="C164">
+        <v>16</v>
+      </c>
+      <c r="D164" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0.9886326035138132</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>17</v>
+      </c>
+      <c r="B165">
+        <v>18</v>
+      </c>
+      <c r="C165">
+        <v>18</v>
+      </c>
+      <c r="D165" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0.9975497352349164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>12</v>
+      </c>
+      <c r="B166">
+        <v>12</v>
+      </c>
+      <c r="C166">
+        <v>12</v>
+      </c>
+      <c r="D166" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0.819751580022555</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>17</v>
+      </c>
+      <c r="B167">
+        <v>17</v>
+      </c>
+      <c r="C167">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0.9955870204962189</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>18</v>
+      </c>
+      <c r="B168">
+        <v>19</v>
+      </c>
+      <c r="C168">
+        <v>18</v>
+      </c>
+      <c r="D168" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0.9988820765269093</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>12</v>
+      </c>
+      <c r="B169">
+        <v>12</v>
+      </c>
+      <c r="C169">
+        <v>20</v>
+      </c>
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0.9548226154490548</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>15</v>
+      </c>
+      <c r="B170">
+        <v>15</v>
+      </c>
+      <c r="C170">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0.9736274074160068</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>17</v>
+      </c>
+      <c r="B171">
+        <v>16</v>
+      </c>
+      <c r="C171">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0.9941544615495722</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>16</v>
+      </c>
+      <c r="B172">
+        <v>15</v>
+      </c>
+      <c r="C172">
+        <v>16</v>
+      </c>
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0.9853888028845791</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>15</v>
+      </c>
+      <c r="B174">
+        <v>14</v>
+      </c>
+      <c r="C174">
+        <v>20</v>
+      </c>
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0.9900055600310841</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>17</v>
+      </c>
+      <c r="B175">
+        <v>18</v>
+      </c>
+      <c r="C175">
+        <v>20</v>
+      </c>
+      <c r="D175" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0.9986863375510457</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>15</v>
+      </c>
+      <c r="B176">
+        <v>15</v>
+      </c>
+      <c r="C176">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" s="3">
+        <v>0.9736274074160068</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>13</v>
+      </c>
+      <c r="B177">
+        <v>13</v>
+      </c>
+      <c r="C177">
+        <v>20</v>
+      </c>
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0.9736274074160068</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>13</v>
+      </c>
+      <c r="B178">
+        <v>13</v>
+      </c>
+      <c r="C178">
+        <v>13</v>
+      </c>
+      <c r="D178" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0.8953113636833046</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>16</v>
+      </c>
+      <c r="B179">
+        <v>16</v>
+      </c>
+      <c r="C179">
+        <v>16</v>
+      </c>
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0.9886326035138132</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>13</v>
+      </c>
+      <c r="B180">
+        <v>15</v>
+      </c>
+      <c r="C180">
+        <v>14</v>
+      </c>
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0.9391221377550747</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>14</v>
+      </c>
+      <c r="B181">
+        <v>14</v>
+      </c>
+      <c r="C181">
+        <v>14</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0.944771280809474</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>17</v>
+      </c>
+      <c r="B182">
+        <v>17</v>
+      </c>
+      <c r="C182">
+        <v>17</v>
+      </c>
+      <c r="D182" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0.9955870204962189</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>18</v>
+      </c>
+      <c r="B183">
+        <v>18</v>
+      </c>
+      <c r="C183">
+        <v>20</v>
+      </c>
+      <c r="D183" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0.9991957512939431</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>11</v>
+      </c>
+      <c r="B185">
+        <v>15</v>
+      </c>
+      <c r="C185">
+        <v>13</v>
+      </c>
+      <c r="D185" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0.8765456995296389</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>16</v>
+      </c>
+      <c r="B186">
+        <v>15</v>
+      </c>
+      <c r="C186">
+        <v>20</v>
+      </c>
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0.9949154935606489</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>17</v>
+      </c>
+      <c r="B187">
+        <v>16</v>
+      </c>
+      <c r="C187">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0.9941544615495722</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>18</v>
+      </c>
+      <c r="B188">
+        <v>19</v>
+      </c>
+      <c r="C188">
+        <v>18</v>
+      </c>
+      <c r="D188" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" s="3">
+        <v>0.9988820765269093</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>18</v>
+      </c>
+      <c r="B189">
+        <v>16</v>
+      </c>
+      <c r="C189">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0.9961781659825659</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>13</v>
+      </c>
+      <c r="B190">
+        <v>15</v>
+      </c>
+      <c r="C190">
+        <v>15</v>
+      </c>
+      <c r="D190" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0.9499980644491912</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>18</v>
+      </c>
+      <c r="B191">
+        <v>18</v>
+      </c>
+      <c r="C191">
+        <v>20</v>
+      </c>
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191" s="3">
+        <v>0.9991957512939431</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>18</v>
+      </c>
+      <c r="B193">
+        <v>17</v>
+      </c>
+      <c r="C193">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>5</v>
+      </c>
+      <c r="E193" s="3">
+        <v>0.9971521687482268</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>16</v>
+      </c>
+      <c r="B194">
+        <v>17</v>
+      </c>
+      <c r="C194">
+        <v>20</v>
+      </c>
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" s="3">
+        <v>0.9971521687482268</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>18</v>
+      </c>
+      <c r="B195">
+        <v>17</v>
+      </c>
+      <c r="C195">
+        <v>18</v>
+      </c>
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" s="3">
+        <v>0.9978964101522474</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>13</v>
+      </c>
+      <c r="B196">
+        <v>15</v>
+      </c>
+      <c r="C196">
+        <v>14</v>
+      </c>
+      <c r="D196" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" s="3">
+        <v>0.9391221377550747</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>15</v>
+      </c>
+      <c r="B198">
+        <v>17</v>
+      </c>
+      <c r="C198">
+        <v>16</v>
+      </c>
+      <c r="D198" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" s="3">
+        <v>0.9870986265460882</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>15</v>
+      </c>
+      <c r="B199">
+        <v>15</v>
+      </c>
+      <c r="C199">
+        <v>15</v>
+      </c>
+      <c r="D199" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0.9736274074160068</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>15</v>
+      </c>
+      <c r="B200">
+        <v>15</v>
+      </c>
+      <c r="C200">
+        <v>15</v>
+      </c>
+      <c r="D200" t="s">
+        <v>5</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0.9736274074160068</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>12</v>
+      </c>
+      <c r="B202">
+        <v>12</v>
+      </c>
+      <c r="C202">
+        <v>12</v>
+      </c>
+      <c r="D202" t="s">
+        <v>5</v>
+      </c>
+      <c r="E202" s="3">
+        <v>0.819751580022555</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>13</v>
+      </c>
+      <c r="B203">
+        <v>15</v>
+      </c>
+      <c r="C203">
+        <v>14</v>
+      </c>
+      <c r="D203" t="s">
+        <v>5</v>
+      </c>
+      <c r="E203" s="3">
+        <v>0.9391221377550747</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>12</v>
+      </c>
+      <c r="B204">
+        <v>15</v>
+      </c>
+      <c r="C204">
+        <v>20</v>
+      </c>
+      <c r="D204" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204" s="3">
+        <v>0.9764664386082289</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>11</v>
+      </c>
+      <c r="B205">
+        <v>11</v>
+      </c>
+      <c r="C205">
+        <v>20</v>
+      </c>
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
+      <c r="E205" s="3">
+        <v>0.9264787207233295</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206">
+        <v>13</v>
+      </c>
+      <c r="C206">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206" s="2">
+        <v>0.259851851571635</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>16</v>
+      </c>
+      <c r="B207">
+        <v>16</v>
+      </c>
+      <c r="C207">
+        <v>20</v>
+      </c>
+      <c r="D207" t="s">
+        <v>5</v>
+      </c>
+      <c r="E207" s="3">
+        <v>0.9961781659825659</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>13</v>
+      </c>
+      <c r="B208">
+        <v>15</v>
+      </c>
+      <c r="C208">
+        <v>14</v>
+      </c>
+      <c r="D208" t="s">
+        <v>5</v>
+      </c>
+      <c r="E208" s="3">
+        <v>0.9391221377550747</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209" t="s">
+        <v>5</v>
+      </c>
+      <c r="E209" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>12</v>
+      </c>
+      <c r="B210">
+        <v>12</v>
+      </c>
+      <c r="C210">
+        <v>19</v>
+      </c>
+      <c r="D210" t="s">
+        <v>5</v>
+      </c>
+      <c r="E210" s="3">
+        <v>0.944771280809474</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>20</v>
+      </c>
+      <c r="B211">
+        <v>20</v>
+      </c>
+      <c r="C211">
+        <v>14</v>
+      </c>
+      <c r="D211" t="s">
+        <v>5</v>
+      </c>
+      <c r="E211" s="3">
+        <v>0.9988820765269093</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>0</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>15</v>
+      </c>
+      <c r="D212" t="s">
+        <v>5</v>
+      </c>
+      <c r="E212" s="2">
+        <v>0.04316535999829907</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>9</v>
+      </c>
+      <c r="B213">
+        <v>9</v>
+      </c>
+      <c r="C213">
+        <v>14</v>
+      </c>
+      <c r="D213" t="s">
+        <v>5</v>
+      </c>
+      <c r="E213" s="2">
+        <v>0.6475744960446503</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>20</v>
+      </c>
+      <c r="B214">
+        <v>20</v>
+      </c>
+      <c r="C214">
+        <v>12</v>
+      </c>
+      <c r="D214" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" s="3">
+        <v>0.9978964101522474</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>20</v>
+      </c>
+      <c r="B215">
+        <v>20</v>
+      </c>
+      <c r="C215">
+        <v>17</v>
+      </c>
+      <c r="D215" t="s">
+        <v>5</v>
+      </c>
+      <c r="E215" s="3">
+        <v>0.9995946845034065</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>0</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>18</v>
+      </c>
+      <c r="B217">
+        <v>18</v>
+      </c>
+      <c r="C217">
+        <v>20</v>
+      </c>
+      <c r="D217" t="s">
+        <v>5</v>
+      </c>
+      <c r="E217" s="3">
+        <v>0.9991957512939431</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>12</v>
+      </c>
+      <c r="B218">
+        <v>12</v>
+      </c>
+      <c r="C218">
+        <v>10</v>
+      </c>
+      <c r="D218" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218" s="3">
+        <v>0.7641270163314631</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>18</v>
+      </c>
+      <c r="B219">
+        <v>18</v>
+      </c>
+      <c r="C219">
+        <v>12</v>
+      </c>
+      <c r="D219" t="s">
+        <v>5</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0.9912314885697006</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>18</v>
+      </c>
+      <c r="B221">
+        <v>15</v>
+      </c>
+      <c r="C221">
+        <v>20</v>
+      </c>
+      <c r="D221" t="s">
+        <v>5</v>
+      </c>
+      <c r="E221" s="3">
+        <v>0.9978964101522474</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>20</v>
+      </c>
+      <c r="B222">
+        <v>20</v>
+      </c>
+      <c r="C222">
+        <v>17</v>
+      </c>
+      <c r="D222" t="s">
+        <v>5</v>
+      </c>
+      <c r="E222" s="3">
+        <v>0.9995946845034065</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>16</v>
+      </c>
+      <c r="B223">
+        <v>16</v>
+      </c>
+      <c r="C223">
+        <v>12</v>
+      </c>
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223" s="3">
+        <v>0.9705076184573579</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>14</v>
+      </c>
+      <c r="B224">
+        <v>14</v>
+      </c>
+      <c r="C224">
+        <v>14</v>
+      </c>
+      <c r="D224" t="s">
+        <v>5</v>
+      </c>
+      <c r="E224" s="3">
+        <v>0.944771280809474</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>15</v>
+      </c>
+      <c r="B225">
+        <v>15</v>
+      </c>
+      <c r="C225">
+        <v>13</v>
+      </c>
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0.9592653432794916</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>0</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>0</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>13</v>
+      </c>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227" s="2">
+        <v>0.02807582981938228</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>20</v>
+      </c>
+      <c r="B228">
+        <v>20</v>
+      </c>
+      <c r="C228">
+        <v>20</v>
+      </c>
+      <c r="D228" t="s">
+        <v>5</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0.9998643704866146</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>20</v>
+      </c>
+      <c r="B229">
+        <v>20</v>
+      </c>
+      <c r="C229">
+        <v>8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0.9932940369066492</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>16</v>
+      </c>
+      <c r="B230">
+        <v>16</v>
+      </c>
+      <c r="C230">
+        <v>12</v>
+      </c>
+      <c r="D230" t="s">
+        <v>5</v>
+      </c>
+      <c r="E230" s="3">
+        <v>0.9705076184573579</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231" s="2">
+        <v>0.000746833070940478</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>20</v>
+      </c>
+      <c r="B232">
+        <v>20</v>
+      </c>
+      <c r="C232">
+        <v>14</v>
+      </c>
+      <c r="D232" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232" s="3">
+        <v>0.9988820765269093</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>18</v>
+      </c>
+      <c r="B233">
+        <v>18</v>
+      </c>
+      <c r="C233">
+        <v>14</v>
+      </c>
+      <c r="D233" t="s">
+        <v>5</v>
+      </c>
+      <c r="E233" s="3">
+        <v>0.9949154935606489</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>17</v>
+      </c>
+      <c r="B234">
+        <v>17</v>
+      </c>
+      <c r="C234">
+        <v>19</v>
+      </c>
+      <c r="D234" t="s">
+        <v>5</v>
+      </c>
+      <c r="E234" s="3">
+        <v>0.9975497352349164</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>17</v>
+      </c>
+      <c r="B235">
+        <v>17</v>
+      </c>
+      <c r="C235">
+        <v>14</v>
+      </c>
+      <c r="D235" t="s">
+        <v>5</v>
+      </c>
+      <c r="E235" s="3">
+        <v>0.9900055600310841</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" s="4"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="4">
+        <v>723</v>
+      </c>
+      <c r="B240" s="4">
+        <v>5.958044508638578</v>
       </c>
     </row>
   </sheetData>

--- a/prediccion_test_Arte_2019_1.xlsx
+++ b/prediccion_test_Arte_2019_1.xlsx
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <v>0.06421760762622175</v>
+        <v>0.0416404785512432</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -465,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>0.008269455914287738</v>
+        <v>0.002715963322161397</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3">
-        <v>0.9548226154490548</v>
+        <v>0.9826451446902678</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -499,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="3">
-        <v>0.819751580022555</v>
+        <v>0.880985153082555</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="3">
-        <v>0.9923235421712356</v>
+        <v>0.9985834714189742</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>0.4762891434934396</v>
+        <v>0.5060525770861948</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>0.9764664386082289</v>
+        <v>0.9930754739842091</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>0.1507183252718254</v>
+        <v>0.1251581203587606</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2">
-        <v>0.3093410610575613</v>
+        <v>0.3053876633679458</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -601,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="2">
-        <v>0.3996523864489082</v>
+        <v>0.4138008074487045</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>0.8663272669034698</v>
+        <v>0.9211539996044869</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -635,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="3">
-        <v>0.9813782395271712</v>
+        <v>0.9950259826941799</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -652,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="2">
-        <v>0.5729943278102867</v>
+        <v>0.6203349399395256</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -669,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>0.9990507481812143</v>
+        <v>0.9999278332753526</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -686,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="3">
-        <v>0.7930443476823303</v>
+        <v>0.8562111514961392</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>0.9119192092015977</v>
+        <v>0.9558155341417235</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>0.9998028850952553</v>
+        <v>0.9999923651335415</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -737,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="3">
-        <v>0.9736274074160068</v>
+        <v>0.9918675676666124</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="2">
-        <v>0.5729943278102867</v>
+        <v>0.6203349399395256</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -771,7 +771,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="2">
-        <v>0.6293324743238178</v>
+        <v>0.6847679188716863</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -788,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>0.9670874247986707</v>
+        <v>0.9888857914203587</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -822,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="2">
-        <v>0.4569329022805092</v>
+        <v>0.4828246427920996</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -839,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="2">
-        <v>0.04316535999829907</v>
+        <v>0.0247123728263714</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -856,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>0.9592653432794916</v>
+        <v>0.9849953105355905</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="2">
-        <v>0.2008525669673928</v>
+        <v>0.1796680563047559</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -889,8 +889,8 @@
       <c r="D28" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="2">
-        <v>0.7331120230845887</v>
+      <c r="E28" s="3">
+        <v>0.7968718588578781</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>0.8663272669034698</v>
+        <v>0.9211539996044869</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -924,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="2">
-        <v>0.04316535999829907</v>
+        <v>0.0247123728263714</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -941,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="2">
-        <v>0.008269455914287738</v>
+        <v>0.002715963322161397</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -958,7 +958,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="2">
-        <v>0.5345107832454349</v>
+        <v>0.5753004565566369</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -975,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>0.9194471995283751</v>
+        <v>0.9609909207053895</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -992,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="2">
-        <v>0.6107949322006566</v>
+        <v>0.6637925226939168</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1009,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1026,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="3">
-        <v>0.8322546361222385</v>
+        <v>0.892172292074241</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1060,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="3">
-        <v>0.8322546361222385</v>
+        <v>0.892172292074241</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1077,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="3">
-        <v>0.944771280809474</v>
+        <v>0.976992380869981</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>0.9932940369066492</v>
+        <v>0.9988309066390507</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1128,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="3">
-        <v>0.9986863375510457</v>
+        <v>0.999885264847523</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1145,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="E43" s="3">
-        <v>0.79304434768233</v>
+        <v>0.8562111514961389</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1162,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="3">
-        <v>0.9194471995283751</v>
+        <v>0.9609909207053895</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1179,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="3">
-        <v>0.9912314885697006</v>
+        <v>0.9982890664304466</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1196,7 +1196,7 @@
         <v>5</v>
       </c>
       <c r="E46" s="3">
-        <v>0.9978964101522474</v>
+        <v>0.9997754687196021</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1213,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>0.7488727725877542</v>
+        <v>0.8129279001770539</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1230,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="E48" s="2">
-        <v>0.6293324743238177</v>
+        <v>0.6847679188716861</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>0.9194471995283751</v>
+        <v>0.9609909207053895</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1264,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="3">
-        <v>0.819751580022555</v>
+        <v>0.880985153082555</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="E51" s="3">
-        <v>0.9941544615495722</v>
+        <v>0.99903816178404</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1298,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="2">
-        <v>0.01383183531472953</v>
+        <v>0.005428219475586582</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1315,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1332,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="3">
-        <v>0.9923235421712356</v>
+        <v>0.9985834714189742</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1348,8 +1348,8 @@
       <c r="D55" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="2">
-        <v>0.7168665082269123</v>
+      <c r="E55" s="3">
+        <v>0.7800203887085015</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1366,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="2">
-        <v>0.5151240566352098</v>
+        <v>0.5523684503152145</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1383,7 +1383,7 @@
         <v>5</v>
       </c>
       <c r="E57" s="2">
-        <v>0.5538159324502947</v>
+        <v>0.5979803376777842</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>0.9038787798052939</v>
+        <v>0.9501003483759982</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>0.9670874247986707</v>
+        <v>0.9888857914203587</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1434,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="3">
-        <v>0.9932940369066492</v>
+        <v>0.9988309066390507</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1451,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="3">
-        <v>0.9194471995283751</v>
+        <v>0.9609909207053895</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1468,7 +1468,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="3">
-        <v>0.9499980644491912</v>
+        <v>0.9799875183868204</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="2">
-        <v>0.5729943278102865</v>
+        <v>0.6203349399395254</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="E64" s="2">
-        <v>0.592001687807901</v>
+        <v>0.6422943450860448</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1519,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="2">
-        <v>0.4569329022805092</v>
+        <v>0.4828246427920996</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1536,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="E66" s="2">
-        <v>0.1008312277241259</v>
+        <v>0.07482483090813197</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1553,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="E67" s="2">
-        <v>0.004776838078197176</v>
+        <v>0.001292595329763335</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1570,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="3">
-        <v>0.9941544615495722</v>
+        <v>0.99903816178404</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1587,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="E69" s="3">
-        <v>0.8953113636833046</v>
+        <v>0.9438104249387858</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1604,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="E70" s="3">
-        <v>0.9991957512939431</v>
+        <v>0.9999430412968399</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1621,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="E71" s="3">
-        <v>0.9912314885697004</v>
+        <v>0.9982890664304466</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1638,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1655,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="3">
-        <v>0.9499980644491912</v>
+        <v>0.9799875183868204</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1672,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="E74" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1689,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="E75" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1706,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="E76" s="2">
-        <v>0.01220171488908794</v>
+        <v>0.004586695332009949</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1723,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1740,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="E78" s="3">
-        <v>0.9971521687482268</v>
+        <v>0.9996542887988195</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1757,7 +1757,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="3">
-        <v>0.9932940369066492</v>
+        <v>0.9988309066390507</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1774,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="E80" s="3">
-        <v>0.9978964101522474</v>
+        <v>0.9997754687196021</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1791,7 +1791,7 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>0.9592653432794916</v>
+        <v>0.9849953105355905</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1808,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="E82" s="3">
-        <v>0.9988820765269093</v>
+        <v>0.999908858700051</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1825,7 +1825,7 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>0.9961781659825659</v>
+        <v>0.9994744560914591</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1842,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="E84" s="3">
-        <v>0.9391221377550747</v>
+        <v>0.9736282950121617</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1859,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="E85" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1876,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="3">
-        <v>0.9988820765269093</v>
+        <v>0.999908858700051</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1893,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1910,7 +1910,7 @@
         <v>5</v>
       </c>
       <c r="E88" s="3">
-        <v>0.9941544615495722</v>
+        <v>0.99903816178404</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1927,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>0.9995946845034065</v>
+        <v>0.9999785990579826</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1944,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="E90" s="3">
-        <v>0.9988820765269093</v>
+        <v>0.999908858700051</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1961,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>0.9961781659825659</v>
+        <v>0.9994744560914591</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1978,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="E92" s="3">
-        <v>0.9971521687482268</v>
+        <v>0.9996542887988195</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1995,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="E93" s="3">
-        <v>0.9834874871824799</v>
+        <v>0.9958038822141678</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2012,7 +2012,7 @@
         <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>0.9813782395271712</v>
+        <v>0.9950259826941799</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2029,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="E95" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2046,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="E96" s="3">
-        <v>0.9984597255285098</v>
+        <v>0.9998560264809372</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2063,7 +2063,7 @@
         <v>5</v>
       </c>
       <c r="E97" s="3">
-        <v>0.9834874871824799</v>
+        <v>0.9958038822141678</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2080,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="3">
-        <v>0.9900055600310841</v>
+        <v>0.9979399612752657</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2097,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2114,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>0.9834874871824799</v>
+        <v>0.9958038822141678</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2131,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>0.9633467788325863</v>
+        <v>0.9870665511710808</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2148,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>0.9923235421712356</v>
+        <v>0.9985834714189742</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2165,7 +2165,7 @@
         <v>5</v>
       </c>
       <c r="E103" s="3">
-        <v>0.9592653432794916</v>
+        <v>0.9849953105355905</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2182,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="E104" s="3">
-        <v>0.9971521687482268</v>
+        <v>0.9996542887988195</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2199,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="E105" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2216,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="E106" s="3">
-        <v>0.9961781659825659</v>
+        <v>0.9994744560914591</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2233,7 +2233,7 @@
         <v>5</v>
       </c>
       <c r="E107" s="3">
-        <v>0.9834874871824799</v>
+        <v>0.9958038822141678</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2250,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="E108" s="3">
-        <v>0.9971521687482268</v>
+        <v>0.9996542887988195</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2267,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="E109" s="2">
-        <v>0.1746446671744939</v>
+        <v>0.1507770953543204</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2284,7 +2284,7 @@
         <v>5</v>
       </c>
       <c r="E110" s="3">
-        <v>0.9592653432794916</v>
+        <v>0.9849953105355905</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2301,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="E111" s="3">
-        <v>0.9853888028845791</v>
+        <v>0.9964711115838363</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2318,7 +2318,7 @@
         <v>5</v>
       </c>
       <c r="E112" s="3">
-        <v>0.9900055600310841</v>
+        <v>0.9979399612752657</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2335,7 +2335,7 @@
         <v>5</v>
       </c>
       <c r="E113" s="3">
-        <v>0.9633467788325863</v>
+        <v>0.9870665511710808</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2352,7 +2352,7 @@
         <v>5</v>
       </c>
       <c r="E114" s="3">
-        <v>0.9834874871824799</v>
+        <v>0.9958038822141678</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2369,7 +2369,7 @@
         <v>5</v>
       </c>
       <c r="E115" s="3">
-        <v>0.9900055600310841</v>
+        <v>0.9979399612752657</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2386,7 +2386,7 @@
         <v>5</v>
       </c>
       <c r="E116" s="3">
-        <v>0.9961781659825659</v>
+        <v>0.9994744560914591</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2403,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="E117" s="3">
-        <v>0.9949154935606489</v>
+        <v>0.9992111739223306</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2420,7 +2420,7 @@
         <v>5</v>
       </c>
       <c r="E118" s="3">
-        <v>0.9633467788325863</v>
+        <v>0.9870665511710808</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2437,7 +2437,7 @@
         <v>5</v>
       </c>
       <c r="E119" s="3">
-        <v>0.9923235421712356</v>
+        <v>0.9985834714189742</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2454,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="E120" s="3">
-        <v>0.9853888028845791</v>
+        <v>0.9964711115838363</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2471,7 +2471,7 @@
         <v>5</v>
       </c>
       <c r="E121" s="3">
-        <v>0.9995946845034065</v>
+        <v>0.9999785990579826</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2488,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="E122" s="3">
-        <v>0.9790438606583378</v>
+        <v>0.9941221265744572</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2505,7 +2505,7 @@
         <v>5</v>
       </c>
       <c r="E123" s="2">
-        <v>0.553815932450295</v>
+        <v>0.5979803376777847</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2522,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="E124" s="3">
-        <v>0.9548226154490548</v>
+        <v>0.9826451446902678</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2539,7 +2539,7 @@
         <v>5</v>
       </c>
       <c r="E125" s="3">
-        <v>0.9900055600310841</v>
+        <v>0.9979399612752657</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2556,7 +2556,7 @@
         <v>5</v>
       </c>
       <c r="E126" s="3">
-        <v>0.9998643704866146</v>
+        <v>0.9999955278258518</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2573,7 +2573,7 @@
         <v>5</v>
       </c>
       <c r="E127" s="3">
-        <v>0.9986863375510457</v>
+        <v>0.999885264847523</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2590,7 +2590,7 @@
         <v>5</v>
       </c>
       <c r="E128" s="3">
-        <v>0.9119192092015977</v>
+        <v>0.9558155341417235</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2607,7 +2607,7 @@
         <v>5</v>
       </c>
       <c r="E129" s="3">
-        <v>0.9038787798052939</v>
+        <v>0.9501003483759982</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2624,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="E130" s="3">
-        <v>0.9998643704866146</v>
+        <v>0.9999955278258518</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2641,7 +2641,7 @@
         <v>5</v>
       </c>
       <c r="E131" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2658,7 +2658,7 @@
         <v>5</v>
       </c>
       <c r="E132" s="3">
-        <v>0.9813782395271712</v>
+        <v>0.9950259826941799</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2675,7 +2675,7 @@
         <v>5</v>
       </c>
       <c r="E133" s="3">
-        <v>0.9330309631294547</v>
+        <v>0.9698626027492435</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2692,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="E134" s="3">
-        <v>0.9853888028845791</v>
+        <v>0.9964711115838363</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2709,7 +2709,7 @@
         <v>5</v>
       </c>
       <c r="E135" s="3">
-        <v>0.9391221377550747</v>
+        <v>0.9736282950121617</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2726,7 +2726,7 @@
         <v>5</v>
       </c>
       <c r="E136" s="3">
-        <v>0.8663272669034698</v>
+        <v>0.9211539996044869</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2743,7 +2743,7 @@
         <v>5</v>
       </c>
       <c r="E137" s="3">
-        <v>0.9548226154490548</v>
+        <v>0.9826451446902678</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2760,7 +2760,7 @@
         <v>5</v>
       </c>
       <c r="E138" s="3">
-        <v>0.9994265162097781</v>
+        <v>0.9999648598517668</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2777,7 +2777,7 @@
         <v>5</v>
       </c>
       <c r="E139" s="2">
-        <v>0.1623948052293172</v>
+        <v>0.1375607912375947</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2794,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="E140" s="2">
-        <v>0.01564642417996653</v>
+        <v>0.006404276338741299</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2811,7 +2811,7 @@
         <v>5</v>
       </c>
       <c r="E141" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2828,7 +2828,7 @@
         <v>5</v>
       </c>
       <c r="E142" s="3">
-        <v>0.9932940369066492</v>
+        <v>0.9988309066390507</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2845,7 +2845,7 @@
         <v>5</v>
       </c>
       <c r="E143" s="3">
-        <v>0.9670874247986707</v>
+        <v>0.9888857914203587</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2862,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="E144" s="2">
-        <v>0.3809672729623348</v>
+        <v>0.3912677762741495</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2879,7 +2879,7 @@
         <v>5</v>
       </c>
       <c r="E145" s="3">
-        <v>0.944771280809474</v>
+        <v>0.976992380869981</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2896,7 +2896,7 @@
         <v>5</v>
       </c>
       <c r="E146" s="3">
-        <v>0.9038787798052939</v>
+        <v>0.9501003483759982</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2913,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="E147" s="3">
-        <v>0.9391221377550745</v>
+        <v>0.9736282950121616</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2930,7 +2930,7 @@
         <v>5</v>
       </c>
       <c r="E148" s="3">
-        <v>0.9633467788325863</v>
+        <v>0.9870665511710808</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2947,7 +2947,7 @@
         <v>5</v>
       </c>
       <c r="E149" s="2">
-        <v>0.03136062690072439</v>
+        <v>0.01619265231634104</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2964,7 +2964,7 @@
         <v>5</v>
       </c>
       <c r="E150" s="3">
-        <v>0.9764664386082289</v>
+        <v>0.9930754739842091</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2981,7 +2981,7 @@
         <v>5</v>
       </c>
       <c r="E151" s="3">
-        <v>0.8765456995296389</v>
+        <v>0.9293698985128813</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2998,7 +2998,7 @@
         <v>5</v>
       </c>
       <c r="E152" s="3">
-        <v>0.8765456995296389</v>
+        <v>0.9293698985128813</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="E153" s="3">
-        <v>0.8322546361222385</v>
+        <v>0.892172292074241</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3032,7 +3032,7 @@
         <v>5</v>
       </c>
       <c r="E154" s="3">
-        <v>0.7788560727206837</v>
+        <v>0.8426028091289167</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3049,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="E155" s="2">
-        <v>0.4957015071057841</v>
+        <v>0.5292600022576888</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3066,7 +3066,7 @@
         <v>5</v>
       </c>
       <c r="E156" s="3">
-        <v>0.9955870204962189</v>
+        <v>0.9993551118604055</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3083,7 +3083,7 @@
         <v>5</v>
       </c>
       <c r="E157" s="3">
-        <v>0.9548226154490548</v>
+        <v>0.9826451446902678</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3100,7 +3100,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="3">
-        <v>0.8441849690712624</v>
+        <v>0.9025813606818756</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3117,7 +3117,7 @@
         <v>5</v>
       </c>
       <c r="E159" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3134,7 +3134,7 @@
         <v>5</v>
       </c>
       <c r="E160" s="2">
-        <v>0.2923909024007493</v>
+        <v>0.2852875481208542</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3151,7 +3151,7 @@
         <v>5</v>
       </c>
       <c r="E161" s="3">
-        <v>0.7641270163314631</v>
+        <v>0.828174275603059</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3168,7 +3168,7 @@
         <v>5</v>
       </c>
       <c r="E162" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3185,7 +3185,7 @@
         <v>5</v>
       </c>
       <c r="E163" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3202,7 +3202,7 @@
         <v>5</v>
       </c>
       <c r="E164" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3219,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="E165" s="3">
-        <v>0.9975497352349164</v>
+        <v>0.9997209456189504</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3236,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="E166" s="3">
-        <v>0.819751580022555</v>
+        <v>0.880985153082555</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3253,7 +3253,7 @@
         <v>5</v>
       </c>
       <c r="E167" s="3">
-        <v>0.9955870204962189</v>
+        <v>0.9993551118604055</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3270,7 +3270,7 @@
         <v>5</v>
       </c>
       <c r="E168" s="3">
-        <v>0.9988820765269093</v>
+        <v>0.999908858700051</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3287,7 +3287,7 @@
         <v>5</v>
       </c>
       <c r="E169" s="3">
-        <v>0.9548226154490548</v>
+        <v>0.9826451446902678</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3304,7 +3304,7 @@
         <v>5</v>
       </c>
       <c r="E170" s="3">
-        <v>0.9736274074160068</v>
+        <v>0.9918675676666124</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3321,7 +3321,7 @@
         <v>5</v>
       </c>
       <c r="E171" s="3">
-        <v>0.9941544615495722</v>
+        <v>0.99903816178404</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3338,7 +3338,7 @@
         <v>5</v>
       </c>
       <c r="E172" s="3">
-        <v>0.9853888028845791</v>
+        <v>0.9964711115838363</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3355,7 +3355,7 @@
         <v>5</v>
       </c>
       <c r="E173" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3372,7 +3372,7 @@
         <v>5</v>
       </c>
       <c r="E174" s="3">
-        <v>0.9900055600310841</v>
+        <v>0.9979399612752657</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3389,7 +3389,7 @@
         <v>5</v>
       </c>
       <c r="E175" s="3">
-        <v>0.9986863375510457</v>
+        <v>0.999885264847523</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3406,7 +3406,7 @@
         <v>5</v>
       </c>
       <c r="E176" s="3">
-        <v>0.9736274074160068</v>
+        <v>0.9918675676666124</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3423,7 +3423,7 @@
         <v>5</v>
       </c>
       <c r="E177" s="3">
-        <v>0.9736274074160068</v>
+        <v>0.9918675676666124</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3440,7 +3440,7 @@
         <v>5</v>
       </c>
       <c r="E178" s="3">
-        <v>0.8953113636833046</v>
+        <v>0.9438104249387858</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3457,7 +3457,7 @@
         <v>5</v>
       </c>
       <c r="E179" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3474,7 +3474,7 @@
         <v>5</v>
       </c>
       <c r="E180" s="3">
-        <v>0.9391221377550747</v>
+        <v>0.9736282950121617</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3491,7 +3491,7 @@
         <v>5</v>
       </c>
       <c r="E181" s="3">
-        <v>0.944771280809474</v>
+        <v>0.976992380869981</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3508,7 +3508,7 @@
         <v>5</v>
       </c>
       <c r="E182" s="3">
-        <v>0.9955870204962189</v>
+        <v>0.9993551118604055</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3525,7 +3525,7 @@
         <v>5</v>
       </c>
       <c r="E183" s="3">
-        <v>0.9991957512939431</v>
+        <v>0.9999430412968399</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3542,7 +3542,7 @@
         <v>5</v>
       </c>
       <c r="E184" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3559,7 +3559,7 @@
         <v>5</v>
       </c>
       <c r="E185" s="3">
-        <v>0.8765456995296389</v>
+        <v>0.9293698985128813</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3576,7 +3576,7 @@
         <v>5</v>
       </c>
       <c r="E186" s="3">
-        <v>0.9949154935606489</v>
+        <v>0.9992111739223306</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3593,7 +3593,7 @@
         <v>5</v>
       </c>
       <c r="E187" s="3">
-        <v>0.9941544615495722</v>
+        <v>0.99903816178404</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3610,7 +3610,7 @@
         <v>5</v>
       </c>
       <c r="E188" s="3">
-        <v>0.9988820765269093</v>
+        <v>0.999908858700051</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3627,7 +3627,7 @@
         <v>5</v>
       </c>
       <c r="E189" s="3">
-        <v>0.9961781659825659</v>
+        <v>0.9994744560914591</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3644,7 +3644,7 @@
         <v>5</v>
       </c>
       <c r="E190" s="3">
-        <v>0.9499980644491912</v>
+        <v>0.9799875183868204</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3661,7 +3661,7 @@
         <v>5</v>
       </c>
       <c r="E191" s="3">
-        <v>0.9991957512939431</v>
+        <v>0.9999430412968399</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3678,7 +3678,7 @@
         <v>5</v>
       </c>
       <c r="E192" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3695,7 +3695,7 @@
         <v>5</v>
       </c>
       <c r="E193" s="3">
-        <v>0.9971521687482268</v>
+        <v>0.9996542887988195</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>5</v>
       </c>
       <c r="E194" s="3">
-        <v>0.9971521687482268</v>
+        <v>0.9996542887988195</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3729,7 +3729,7 @@
         <v>5</v>
       </c>
       <c r="E195" s="3">
-        <v>0.9978964101522474</v>
+        <v>0.9997754687196021</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3746,7 +3746,7 @@
         <v>5</v>
       </c>
       <c r="E196" s="3">
-        <v>0.9391221377550747</v>
+        <v>0.9736282950121617</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3763,7 +3763,7 @@
         <v>5</v>
       </c>
       <c r="E197" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3780,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="E198" s="3">
-        <v>0.9870986265460882</v>
+        <v>0.9970414784072634</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3797,7 +3797,7 @@
         <v>5</v>
       </c>
       <c r="E199" s="3">
-        <v>0.9736274074160068</v>
+        <v>0.9918675676666124</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3814,7 +3814,7 @@
         <v>5</v>
       </c>
       <c r="E200" s="3">
-        <v>0.9736274074160068</v>
+        <v>0.9918675676666124</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3831,7 +3831,7 @@
         <v>5</v>
       </c>
       <c r="E201" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3848,7 +3848,7 @@
         <v>5</v>
       </c>
       <c r="E202" s="3">
-        <v>0.819751580022555</v>
+        <v>0.880985153082555</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3865,7 +3865,7 @@
         <v>5</v>
       </c>
       <c r="E203" s="3">
-        <v>0.9391221377550747</v>
+        <v>0.9736282950121617</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3882,7 +3882,7 @@
         <v>5</v>
       </c>
       <c r="E204" s="3">
-        <v>0.9764664386082289</v>
+        <v>0.9930754739842091</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3899,7 +3899,7 @@
         <v>5</v>
       </c>
       <c r="E205" s="3">
-        <v>0.9264787207233295</v>
+        <v>0.9656616283843638</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3916,7 +3916,7 @@
         <v>5</v>
       </c>
       <c r="E206" s="2">
-        <v>0.259851851571635</v>
+        <v>0.2470885954509039</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3933,7 +3933,7 @@
         <v>5</v>
       </c>
       <c r="E207" s="3">
-        <v>0.9961781659825659</v>
+        <v>0.9994744560914591</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3950,7 +3950,7 @@
         <v>5</v>
       </c>
       <c r="E208" s="3">
-        <v>0.9391221377550747</v>
+        <v>0.9736282950121617</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3967,7 +3967,7 @@
         <v>5</v>
       </c>
       <c r="E209" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3984,7 +3984,7 @@
         <v>5</v>
       </c>
       <c r="E210" s="3">
-        <v>0.944771280809474</v>
+        <v>0.976992380869981</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4001,7 +4001,7 @@
         <v>5</v>
       </c>
       <c r="E211" s="3">
-        <v>0.9988820765269093</v>
+        <v>0.999908858700051</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4018,7 +4018,7 @@
         <v>5</v>
       </c>
       <c r="E212" s="2">
-        <v>0.04316535999829907</v>
+        <v>0.0247123728263714</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4035,7 +4035,7 @@
         <v>5</v>
       </c>
       <c r="E213" s="2">
-        <v>0.6475744960446503</v>
+        <v>0.7051639726862919</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4052,7 +4052,7 @@
         <v>5</v>
       </c>
       <c r="E214" s="3">
-        <v>0.9978964101522474</v>
+        <v>0.9997754687196021</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4069,7 +4069,7 @@
         <v>5</v>
       </c>
       <c r="E215" s="3">
-        <v>0.9995946845034065</v>
+        <v>0.9999785990579826</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4086,7 +4086,7 @@
         <v>5</v>
       </c>
       <c r="E216" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4103,7 +4103,7 @@
         <v>5</v>
       </c>
       <c r="E217" s="3">
-        <v>0.9991957512939431</v>
+        <v>0.9999430412968399</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4120,7 +4120,7 @@
         <v>5</v>
       </c>
       <c r="E218" s="3">
-        <v>0.7641270163314631</v>
+        <v>0.828174275603059</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4137,7 +4137,7 @@
         <v>5</v>
       </c>
       <c r="E219" s="3">
-        <v>0.9912314885697006</v>
+        <v>0.9982890664304466</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4154,7 +4154,7 @@
         <v>5</v>
       </c>
       <c r="E220" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4171,7 +4171,7 @@
         <v>5</v>
       </c>
       <c r="E221" s="3">
-        <v>0.9978964101522474</v>
+        <v>0.9997754687196021</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4188,7 +4188,7 @@
         <v>5</v>
       </c>
       <c r="E222" s="3">
-        <v>0.9995946845034065</v>
+        <v>0.9999785990579826</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4205,7 +4205,7 @@
         <v>5</v>
       </c>
       <c r="E223" s="3">
-        <v>0.9705076184573579</v>
+        <v>0.9904782824855066</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4222,7 +4222,7 @@
         <v>5</v>
       </c>
       <c r="E224" s="3">
-        <v>0.944771280809474</v>
+        <v>0.976992380869981</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4239,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="E225" s="3">
-        <v>0.9592653432794916</v>
+        <v>0.9849953105355905</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4256,7 +4256,7 @@
         <v>5</v>
       </c>
       <c r="E226" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4273,7 +4273,7 @@
         <v>5</v>
       </c>
       <c r="E227" s="2">
-        <v>0.02807582981938228</v>
+        <v>0.01397954327249096</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4290,7 +4290,7 @@
         <v>5</v>
       </c>
       <c r="E228" s="3">
-        <v>0.9998643704866146</v>
+        <v>0.9999955278258518</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4307,7 +4307,7 @@
         <v>5</v>
       </c>
       <c r="E229" s="3">
-        <v>0.9932940369066492</v>
+        <v>0.9988309066390507</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4324,7 +4324,7 @@
         <v>5</v>
       </c>
       <c r="E230" s="3">
-        <v>0.9705076184573579</v>
+        <v>0.9904782824855066</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4341,7 +4341,7 @@
         <v>5</v>
       </c>
       <c r="E231" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4358,7 +4358,7 @@
         <v>5</v>
       </c>
       <c r="E232" s="3">
-        <v>0.9988820765269093</v>
+        <v>0.999908858700051</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4375,7 +4375,7 @@
         <v>5</v>
       </c>
       <c r="E233" s="3">
-        <v>0.9949154935606489</v>
+        <v>0.9992111739223306</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4392,7 +4392,7 @@
         <v>5</v>
       </c>
       <c r="E234" s="3">
-        <v>0.9975497352349164</v>
+        <v>0.9997209456189504</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4409,7 +4409,7 @@
         <v>5</v>
       </c>
       <c r="E235" s="3">
-        <v>0.9900055600310841</v>
+        <v>0.9979399612752657</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4420,7 +4420,7 @@
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4431,7 +4431,7 @@
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4444,10 +4444,10 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="4">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="B240" s="4">
-        <v>5.958044508638578</v>
+        <v>6.015729586868827</v>
       </c>
     </row>
   </sheetData>
